--- a/data/evaluation/evaluation_South_Autumn_Sweet Potatoes.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Sweet Potatoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2197.636858974359</v>
+        <v>2178.40608974359</v>
       </c>
       <c r="C3" t="n">
-        <v>15660838.0973531</v>
+        <v>15629684.25119925</v>
       </c>
       <c r="D3" t="n">
-        <v>3957.37767939239</v>
+        <v>3953.4395469261</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3746704732213574</v>
+        <v>0.3759144309043125</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2160.095912672295</v>
+        <v>2189.315249809806</v>
       </c>
       <c r="C4" t="n">
-        <v>15435309.08826261</v>
+        <v>15497651.10819771</v>
       </c>
       <c r="D4" t="n">
-        <v>3928.779592731387</v>
+        <v>3936.705616146286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3836757351142857</v>
+        <v>0.381186449063175</v>
       </c>
     </row>
     <row r="5">
